--- a/高光腰带库存.xlsx
+++ b/高光腰带库存.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/prince/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="4"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -1749,7 +1749,7 @@
       <c r="G65" s="5"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>31</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -1787,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1802,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -1832,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -1845,8 +1845,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>32</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -1892,8 +1892,11 @@
       <c r="H75" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -1906,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="4"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -1919,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="4"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -1928,7 +1931,7 @@
       <c r="G78" s="5"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>33</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>35</v>

--- a/高光腰带库存.xlsx
+++ b/高光腰带库存.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="51">
   <si>
     <t>高光皮带库存</t>
     <rPh sb="0" eb="1">
@@ -399,7 +399,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>·</t>
+    <t>圆点</t>
+    <rPh sb="0" eb="1">
+      <t>yua'dia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆头</t>
+    <rPh sb="0" eb="1">
+      <t>yuan'tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方头</t>
+    <rPh sb="0" eb="1">
+      <t>fang'tou</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N127"/>
+  <dimension ref="B1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1083,7 @@
     <row r="15" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>16</v>
@@ -1139,9 +1164,7 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
@@ -1387,10 +1410,18 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F39" s="5" t="s">
         <v>23</v>
       </c>
@@ -1402,18 +1433,10 @@
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
         <v>23</v>
       </c>
@@ -1525,10 +1548,18 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="B49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F49" s="5" t="s">
         <v>23</v>
       </c>
@@ -1544,7 +1575,9 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G50" s="5">
         <v>90</v>
       </c>
@@ -1568,19 +1601,13 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G52" s="8">
         <v>100</v>
       </c>
@@ -1671,7 +1698,9 @@
       <c r="E59" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="8"/>
+      <c r="F59" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="G59" s="8">
         <v>95</v>
       </c>
@@ -1695,7 +1724,7 @@
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -1708,7 +1737,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H62" s="6">
         <v>1</v>
@@ -1717,8 +1746,12 @@
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5">
         <v>100</v>
@@ -1733,82 +1766,84 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="5">
-        <v>100</v>
-      </c>
-      <c r="H64" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="6"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="4" t="s">
+      <c r="G64" s="5"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="5">
+        <v>80</v>
+      </c>
+      <c r="H65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
       <c r="F66" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G66" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H66" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G67" s="5">
         <v>90</v>
       </c>
       <c r="H67" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G68" s="5">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H68" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G69" s="5">
         <v>95</v>
@@ -1817,22 +1852,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="5">
-        <v>95</v>
+      <c r="F70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="13">
+        <v>100</v>
       </c>
       <c r="H70" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -1845,8 +1880,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,114 +1899,113 @@
         <v>90</v>
       </c>
       <c r="H73" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H74" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H75" s="6">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="5">
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" s="8">
+        <v>95</v>
+      </c>
+      <c r="H77" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2">
+        <v>95</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5">
+        <v>100</v>
+      </c>
+      <c r="H80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5">
         <v>105</v>
       </c>
-      <c r="H76" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5">
-        <v>115</v>
-      </c>
-      <c r="H77" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="6"/>
-    </row>
-    <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8">
-        <v>95</v>
-      </c>
-      <c r="H79" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2">
-        <v>95</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2</v>
+      <c r="H81" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
@@ -1980,24 +2014,30 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="5">
-        <v>100</v>
-      </c>
-      <c r="H82" s="6">
+      <c r="G82" s="5"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="5">
+        <v>90</v>
+      </c>
+      <c r="H83" s="6">
         <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="4"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5">
-        <v>105</v>
-      </c>
-      <c r="H83" s="6">
-        <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
@@ -2005,121 +2045,125 @@
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="6"/>
+      <c r="F84" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="5">
+        <v>95</v>
+      </c>
+      <c r="H84" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="5">
+        <v>95</v>
+      </c>
+      <c r="H85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8">
+        <v>95</v>
+      </c>
+      <c r="H86" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="5">
+      <c r="E88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2">
         <v>90</v>
       </c>
-      <c r="H85" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="4"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" s="5">
-        <v>95</v>
-      </c>
-      <c r="H86" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="4"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="5">
-        <v>95</v>
-      </c>
-      <c r="H87" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="4"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" s="5">
-        <v>95</v>
-      </c>
-      <c r="H88" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8">
-        <v>95</v>
-      </c>
-      <c r="H89" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
+        <v>100</v>
+      </c>
+      <c r="H89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5">
+        <v>105</v>
+      </c>
+      <c r="H90" s="6">
+        <v>1</v>
+      </c>
+    </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2">
-        <v>90</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="F91" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" s="13">
+        <v>95</v>
+      </c>
+      <c r="H91" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" s="4"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5">
-        <v>95</v>
+      <c r="D92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="13">
+        <v>100</v>
       </c>
       <c r="H92" s="6">
         <v>1</v>
@@ -2131,21 +2175,27 @@
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
-      <c r="G93" s="5">
-        <v>100</v>
-      </c>
-      <c r="H93" s="6">
-        <v>2</v>
-      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="6"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="4"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="B94" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G94" s="5">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="H94" s="6">
         <v>1</v>
@@ -2156,31 +2206,29 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="6"/>
+      <c r="F95" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="5">
+        <v>90</v>
+      </c>
+      <c r="H95" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G96" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H96" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
@@ -2189,79 +2237,75 @@
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="5">
+        <v>95</v>
+      </c>
+      <c r="H97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="5">
-        <v>90</v>
-      </c>
-      <c r="H97" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B98" s="4"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="5">
-        <v>90</v>
-      </c>
-      <c r="H98" s="6">
+      <c r="G98" s="8">
+        <v>95</v>
+      </c>
+      <c r="H98" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2">
+        <v>95</v>
+      </c>
+      <c r="H101" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5">
+        <v>100</v>
+      </c>
+      <c r="H102" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B99" s="4"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="5">
-        <v>95</v>
-      </c>
-      <c r="H99" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" s="8">
-        <v>95</v>
-      </c>
-      <c r="H100" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2">
-        <v>95</v>
-      </c>
-      <c r="H103" s="3">
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5">
+        <v>105</v>
+      </c>
+      <c r="H103" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2272,7 +2316,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="5">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H104" s="6">
         <v>1</v>
@@ -2284,21 +2328,27 @@
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="5">
-        <v>100</v>
-      </c>
-      <c r="H105" s="6">
-        <v>3</v>
-      </c>
+      <c r="G105" s="5"/>
+      <c r="H105" s="6"/>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="4"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
+      <c r="B106" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G106" s="5">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H106" s="6">
         <v>1</v>
@@ -2309,9 +2359,11 @@
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G107" s="5">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="H107" s="6">
         <v>1</v>
@@ -2322,245 +2374,198 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="6"/>
+      <c r="F108" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="5">
+        <v>90</v>
+      </c>
+      <c r="H108" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="5">
+        <v>95</v>
+      </c>
+      <c r="H109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="8">
+        <v>110</v>
+      </c>
+      <c r="H110" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="2">
+        <v>85</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F115" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" s="8">
+        <v>95</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" s="11">
+        <v>85</v>
+      </c>
+      <c r="H117" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="2">
+        <v>80</v>
+      </c>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G121" s="5">
         <v>85</v>
       </c>
-      <c r="H109" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B110" s="4"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" s="5">
+      <c r="H121" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="5">
         <v>90</v>
       </c>
-      <c r="H110" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5" t="s">
+      <c r="H122" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G111" s="5">
-        <v>90</v>
-      </c>
-      <c r="H111" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B112" s="4"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" s="5">
-        <v>95</v>
-      </c>
-      <c r="H112" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8" t="s">
+      <c r="G123" s="5">
+        <v>95</v>
+      </c>
+      <c r="H123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G113" s="8">
-        <v>110</v>
-      </c>
-      <c r="H113" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" s="2">
-        <v>85</v>
-      </c>
-      <c r="H117" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" s="8">
-        <v>95</v>
-      </c>
-      <c r="H118" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C120" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G120" s="11">
-        <v>85</v>
-      </c>
-      <c r="H120" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" s="2">
-        <v>80</v>
-      </c>
-      <c r="H123" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="4"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" s="5">
-        <v>85</v>
-      </c>
-      <c r="H124" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="4"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" s="5">
-        <v>90</v>
-      </c>
-      <c r="H125" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="4"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" s="5">
-        <v>95</v>
-      </c>
-      <c r="H126" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" s="8">
-        <v>95</v>
-      </c>
-      <c r="H127" s="9">
+      <c r="G124" s="8">
+        <v>95</v>
+      </c>
+      <c r="H124" s="9">
         <v>1</v>
       </c>
     </row>

--- a/高光腰带库存.xlsx
+++ b/高光腰带库存.xlsx
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1769,7 +1769,7 @@
       <c r="G64" s="5"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
         <v>31</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="4"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="4"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -1822,7 +1822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="4"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="4"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -1852,7 +1852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -1880,8 +1880,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>32</v>
       </c>
@@ -1901,8 +1901,11 @@
       <c r="H73" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="4"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -1915,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="4"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -1928,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="4"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -1937,7 +1940,7 @@
       <c r="G76" s="5"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>33</v>
       </c>
@@ -1960,8 +1963,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>35</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
